--- a/data/raw/StoryChapter.xlsx
+++ b/data/raw/StoryChapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0A419-E92C-E546-9DA3-CBEB8A929575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBDB43A-FECA-204E-875D-D4CE4594FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="620" windowWidth="55500" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="620" windowWidth="76660" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t>Poem: “A boat beneath a sunny sky”</t>
-  </si>
-  <si>
-    <t>BK_001</t>
-  </si>
-  <si>
-    <t>BK_002</t>
   </si>
   <si>
     <t>Alice meets a Caterpillar who gives her cryptic advice and a mushroom that can change her size. Alice experiments with the mushroom and adjusts her size.</t>
@@ -3095,93 +3089,6 @@
     <t>to be completed</t>
   </si>
   <si>
-    <t>BCH_001</t>
-  </si>
-  <si>
-    <t>BCH_002</t>
-  </si>
-  <si>
-    <t>BCH_003</t>
-  </si>
-  <si>
-    <t>BCH_004</t>
-  </si>
-  <si>
-    <t>BCH_005</t>
-  </si>
-  <si>
-    <t>BCH_006</t>
-  </si>
-  <si>
-    <t>BCH_007</t>
-  </si>
-  <si>
-    <t>BCH_008</t>
-  </si>
-  <si>
-    <t>BCH_009</t>
-  </si>
-  <si>
-    <t>BCH_010</t>
-  </si>
-  <si>
-    <t>BCH_011</t>
-  </si>
-  <si>
-    <t>BCH_012</t>
-  </si>
-  <si>
-    <t>BCH_013</t>
-  </si>
-  <si>
-    <t>BCH_014</t>
-  </si>
-  <si>
-    <t>BCH_015</t>
-  </si>
-  <si>
-    <t>BCH_016</t>
-  </si>
-  <si>
-    <t>BCH_017</t>
-  </si>
-  <si>
-    <t>BCH_018</t>
-  </si>
-  <si>
-    <t>BCH_019</t>
-  </si>
-  <si>
-    <t>BCH_020</t>
-  </si>
-  <si>
-    <t>BCH_021</t>
-  </si>
-  <si>
-    <t>BCH_022</t>
-  </si>
-  <si>
-    <t>BCH_023</t>
-  </si>
-  <si>
-    <t>BCH_024</t>
-  </si>
-  <si>
-    <t>BCH_025</t>
-  </si>
-  <si>
-    <t>BCH_026</t>
-  </si>
-  <si>
-    <t>BCH_027</t>
-  </si>
-  <si>
-    <t>BCH_028</t>
-  </si>
-  <si>
-    <t>BCH_029</t>
-  </si>
-  <si>
     <t>Authorship Resource</t>
   </si>
   <si>
@@ -3321,6 +3228,99 @@
   </si>
   <si>
     <t>Story ID</t>
+  </si>
+  <si>
+    <t>SCH_001</t>
+  </si>
+  <si>
+    <t>SCH_002</t>
+  </si>
+  <si>
+    <t>SCH_003</t>
+  </si>
+  <si>
+    <t>SCH_004</t>
+  </si>
+  <si>
+    <t>SCH_005</t>
+  </si>
+  <si>
+    <t>SCH_006</t>
+  </si>
+  <si>
+    <t>SCH_007</t>
+  </si>
+  <si>
+    <t>SCH_008</t>
+  </si>
+  <si>
+    <t>SCH_009</t>
+  </si>
+  <si>
+    <t>SCH_010</t>
+  </si>
+  <si>
+    <t>SCH_011</t>
+  </si>
+  <si>
+    <t>SCH_012</t>
+  </si>
+  <si>
+    <t>SCH_013</t>
+  </si>
+  <si>
+    <t>SCH_014</t>
+  </si>
+  <si>
+    <t>SCH_015</t>
+  </si>
+  <si>
+    <t>SCH_016</t>
+  </si>
+  <si>
+    <t>SCH_017</t>
+  </si>
+  <si>
+    <t>SCH_018</t>
+  </si>
+  <si>
+    <t>SCH_019</t>
+  </si>
+  <si>
+    <t>SCH_020</t>
+  </si>
+  <si>
+    <t>SCH_021</t>
+  </si>
+  <si>
+    <t>SCH_022</t>
+  </si>
+  <si>
+    <t>SCH_023</t>
+  </si>
+  <si>
+    <t>SCH_024</t>
+  </si>
+  <si>
+    <t>SCH_025</t>
+  </si>
+  <si>
+    <t>SCH_026</t>
+  </si>
+  <si>
+    <t>SCH_027</t>
+  </si>
+  <si>
+    <t>SCH_028</t>
+  </si>
+  <si>
+    <t>SCH_029</t>
+  </si>
+  <si>
+    <t>ST_001</t>
+  </si>
+  <si>
+    <t>ST_002</t>
   </si>
 </sst>
 </file>
@@ -3758,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3772,7 +3772,7 @@
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="11" max="11" width="29.1640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="99.6640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="34.83203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3826,1301 +3826,1301 @@
         <v>13</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="O5" t="s">
-        <v>205</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" t="s">
-        <v>206</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="O17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="O18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
